--- a/operaciones.xlsx
+++ b/operaciones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="16900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -364,11 +364,171 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -392,7 +552,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -406,13 +566,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -430,69 +653,102 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -943,10 +1199,10 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
@@ -957,34 +1213,34 @@
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="18"/>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="18"/>
     </row>
     <row r="22" spans="2:3" ht="31" customHeight="1">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1010,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:CA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="BH21" sqref="J5:BI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1025,1309 +1281,2040 @@
     <col min="16" max="16" width="4.33203125" customWidth="1"/>
     <col min="17" max="17" width="4.1640625" customWidth="1"/>
     <col min="18" max="18" width="5" customWidth="1"/>
-    <col min="19" max="19" width="4.33203125" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" customWidth="1"/>
-    <col min="21" max="21" width="9.33203125" customWidth="1"/>
-    <col min="22" max="22" width="5" customWidth="1"/>
-    <col min="23" max="23" width="4.5" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" customWidth="1"/>
+    <col min="19" max="19" width="2.6640625" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" customWidth="1"/>
+    <col min="21" max="21" width="7.5" customWidth="1"/>
+    <col min="22" max="22" width="3.1640625" customWidth="1"/>
+    <col min="23" max="23" width="2.6640625" customWidth="1"/>
+    <col min="24" max="24" width="5.83203125" customWidth="1"/>
     <col min="25" max="25" width="4.5" customWidth="1"/>
-    <col min="28" max="28" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4" customWidth="1"/>
+    <col min="27" max="28" width="9.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7" customWidth="1"/>
+    <col min="30" max="30" width="6.5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="3.5" customWidth="1"/>
+    <col min="32" max="32" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4" customWidth="1"/>
+    <col min="39" max="39" width="3.83203125" customWidth="1"/>
+    <col min="40" max="40" width="7.83203125" customWidth="1"/>
+    <col min="41" max="41" width="8.6640625" customWidth="1"/>
+    <col min="42" max="42" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.5" customWidth="1"/>
+    <col min="47" max="47" width="5" customWidth="1"/>
+    <col min="48" max="48" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="3.83203125" customWidth="1"/>
+    <col min="53" max="53" width="5.33203125" customWidth="1"/>
+    <col min="54" max="54" width="3.6640625" customWidth="1"/>
+    <col min="55" max="55" width="3.5" customWidth="1"/>
+    <col min="56" max="56" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="1.33203125" customWidth="1"/>
+    <col min="60" max="60" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:47">
-      <c r="C5" s="10" t="s">
+    <row r="5" spans="3:65">
+      <c r="C5" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16" t="s">
+      <c r="K5" s="35"/>
+      <c r="L5" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17" t="s">
+      <c r="M5" s="36"/>
+      <c r="N5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18" t="s">
+      <c r="O5" s="37"/>
+      <c r="P5" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="19" t="s">
+      <c r="Q5" s="38"/>
+      <c r="R5" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="13"/>
-    </row>
-    <row r="6" spans="3:47">
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="7" t="s">
+      <c r="S5" s="53"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="48"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="48"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+    </row>
+    <row r="6" spans="3:65">
+      <c r="C6" s="31"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="14" t="s">
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="3:47">
-      <c r="C7" s="29">
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="48"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="48"/>
+      <c r="AT6" s="48"/>
+      <c r="AU6" s="48"/>
+      <c r="AV6" s="48"/>
+      <c r="AW6" s="48"/>
+      <c r="AX6" s="48"/>
+      <c r="AY6" s="48"/>
+      <c r="AZ6" s="48"/>
+      <c r="BA6" s="48"/>
+      <c r="BB6" s="48"/>
+      <c r="BC6" s="48"/>
+      <c r="BD6" s="48"/>
+      <c r="BE6" s="48"/>
+      <c r="BF6" s="48"/>
+      <c r="BG6" s="48"/>
+      <c r="BH6" s="48"/>
+      <c r="BI6" s="48"/>
+    </row>
+    <row r="7" spans="3:65">
+      <c r="C7" s="13">
         <v>36</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="33" t="s">
+      <c r="G7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>32</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="25">
+      <c r="J7" s="64">
         <v>36</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26" t="s">
+      <c r="K7" s="64"/>
+      <c r="L7" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="22" t="s">
+      <c r="M7" s="41"/>
+      <c r="N7" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="O7" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="28" t="s">
+      <c r="P7" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="28"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="3:47">
-      <c r="C8" s="29">
+      <c r="S7" s="46"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="48"/>
+      <c r="AJ7" s="48"/>
+      <c r="AK7" s="48"/>
+      <c r="AL7" s="48"/>
+      <c r="AM7" s="48"/>
+      <c r="AN7" s="48"/>
+      <c r="AO7" s="48"/>
+      <c r="AP7" s="48"/>
+      <c r="AQ7" s="48"/>
+      <c r="AR7" s="48"/>
+      <c r="AS7" s="48"/>
+      <c r="AT7" s="48"/>
+      <c r="AU7" s="48"/>
+      <c r="AV7" s="48"/>
+      <c r="AW7" s="48"/>
+      <c r="AX7" s="48"/>
+      <c r="AY7" s="48"/>
+      <c r="AZ7" s="48"/>
+      <c r="BA7" s="48"/>
+      <c r="BB7" s="48"/>
+      <c r="BC7" s="48"/>
+      <c r="BD7" s="48"/>
+      <c r="BE7" s="48"/>
+      <c r="BF7" s="48"/>
+      <c r="BG7" s="48"/>
+      <c r="BH7" s="48"/>
+      <c r="BI7" s="48"/>
+    </row>
+    <row r="8" spans="3:65">
+      <c r="C8" s="13">
         <v>37</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="33" t="s">
+      <c r="G8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="L8" s="25">
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="64">
         <v>37</v>
       </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="21" t="s">
+      <c r="M8" s="64"/>
+      <c r="N8" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="22" t="s">
+      <c r="O8" s="67"/>
+      <c r="P8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="22" t="s">
+      <c r="Q8" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" s="23"/>
-      <c r="T8" s="24" t="s">
+      <c r="R8" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="43"/>
+      <c r="T8" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="24"/>
-    </row>
-    <row r="9" spans="3:47">
-      <c r="C9" s="29">
+      <c r="U8" s="44"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="48"/>
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="48"/>
+      <c r="AR8" s="48"/>
+      <c r="AS8" s="48"/>
+      <c r="AT8" s="48"/>
+      <c r="AU8" s="48"/>
+      <c r="AV8" s="48"/>
+      <c r="AW8" s="48"/>
+      <c r="AX8" s="48"/>
+      <c r="AY8" s="48"/>
+      <c r="AZ8" s="48"/>
+      <c r="BA8" s="48"/>
+      <c r="BB8" s="48"/>
+      <c r="BC8" s="48"/>
+      <c r="BD8" s="48"/>
+      <c r="BE8" s="48"/>
+      <c r="BF8" s="48"/>
+      <c r="BG8" s="48"/>
+      <c r="BH8" s="48"/>
+      <c r="BI8" s="48"/>
+      <c r="BJ8" s="48"/>
+      <c r="BK8" s="48"/>
+      <c r="BL8" s="48"/>
+      <c r="BM8" s="48"/>
+    </row>
+    <row r="9" spans="3:65">
+      <c r="C9" s="13">
         <v>38</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="33" t="s">
+      <c r="G9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="P9" s="25">
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="64">
         <v>38</v>
       </c>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="21" t="s">
+      <c r="Q9" s="64"/>
+      <c r="R9" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="21"/>
-      <c r="T9" s="22" t="s">
+      <c r="S9" s="67"/>
+      <c r="T9" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="22" t="s">
+      <c r="U9" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="V9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="28" t="s">
+      <c r="V9" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" s="43"/>
+      <c r="X9" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="Y9" s="28"/>
-    </row>
-    <row r="10" spans="3:47">
-      <c r="C10" s="29">
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="48"/>
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="48"/>
+      <c r="AM9" s="48"/>
+      <c r="AN9" s="48"/>
+      <c r="AO9" s="48"/>
+      <c r="AP9" s="48"/>
+      <c r="AQ9" s="48"/>
+      <c r="AR9" s="48"/>
+      <c r="AS9" s="48"/>
+      <c r="AT9" s="48"/>
+      <c r="AU9" s="48"/>
+      <c r="AV9" s="48"/>
+      <c r="AW9" s="48"/>
+      <c r="AX9" s="48"/>
+      <c r="AY9" s="48"/>
+      <c r="AZ9" s="48"/>
+      <c r="BA9" s="48"/>
+      <c r="BB9" s="48"/>
+      <c r="BC9" s="48"/>
+      <c r="BD9" s="48"/>
+      <c r="BE9" s="48"/>
+      <c r="BF9" s="48"/>
+      <c r="BG9" s="48"/>
+      <c r="BH9" s="48"/>
+      <c r="BI9" s="48"/>
+      <c r="BJ9" s="48"/>
+      <c r="BK9" s="48"/>
+      <c r="BL9" s="48"/>
+      <c r="BM9" s="48"/>
+    </row>
+    <row r="10" spans="3:65">
+      <c r="C10" s="13">
         <v>39</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="33" t="s">
+      <c r="G10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="V10" s="25">
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="64">
         <v>39</v>
       </c>
-      <c r="W10" s="25"/>
-      <c r="X10" s="21" t="s">
+      <c r="W10" s="64"/>
+      <c r="X10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="22" t="s">
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AA10" s="22" t="s">
+      <c r="AA10" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AB10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="24" t="s">
+      <c r="AB10" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="24"/>
-    </row>
-    <row r="11" spans="3:47">
-      <c r="C11" s="29">
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="48"/>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="48"/>
+      <c r="AP10" s="48"/>
+      <c r="AQ10" s="48"/>
+      <c r="AR10" s="48"/>
+      <c r="AS10" s="48"/>
+      <c r="AT10" s="48"/>
+      <c r="AU10" s="48"/>
+      <c r="AV10" s="48"/>
+      <c r="AW10" s="48"/>
+      <c r="AX10" s="48"/>
+      <c r="AY10" s="48"/>
+      <c r="AZ10" s="48"/>
+      <c r="BA10" s="48"/>
+      <c r="BB10" s="48"/>
+      <c r="BC10" s="48"/>
+      <c r="BD10" s="48"/>
+      <c r="BE10" s="48"/>
+      <c r="BF10" s="48"/>
+      <c r="BG10" s="48"/>
+      <c r="BH10" s="48"/>
+      <c r="BI10" s="48"/>
+    </row>
+    <row r="11" spans="3:65">
+      <c r="C11" s="13">
         <v>39</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="33" t="s">
+      <c r="G11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="X11" s="20">
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="64">
         <v>40</v>
       </c>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="21" t="s">
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="22" t="s">
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AC11" s="22" t="s">
+      <c r="AC11" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AD11" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="24" t="s">
+      <c r="AD11" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AG11" s="24"/>
-    </row>
-    <row r="12" spans="3:47">
-      <c r="C12" s="29">
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="59"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="48"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="48"/>
+      <c r="AO11" s="48"/>
+      <c r="AP11" s="48"/>
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="48"/>
+      <c r="AS11" s="48"/>
+      <c r="AT11" s="48"/>
+      <c r="AU11" s="48"/>
+      <c r="AV11" s="48"/>
+      <c r="AW11" s="48"/>
+      <c r="AX11" s="48"/>
+      <c r="AY11" s="48"/>
+      <c r="AZ11" s="48"/>
+      <c r="BA11" s="48"/>
+      <c r="BB11" s="48"/>
+      <c r="BC11" s="48"/>
+      <c r="BD11" s="48"/>
+      <c r="BE11" s="48"/>
+      <c r="BF11" s="48"/>
+      <c r="BG11" s="48"/>
+      <c r="BH11" s="48"/>
+      <c r="BI11" s="48"/>
+    </row>
+    <row r="12" spans="3:65">
+      <c r="C12" s="13">
         <v>40</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="33" t="s">
+      <c r="G12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="AB12" s="20">
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="64">
         <v>41</v>
       </c>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="21" t="s">
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="22" t="s">
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="AG12" s="22" t="s">
+      <c r="AG12" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="AH12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="24" t="s">
+      <c r="AH12" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="AK12" s="24"/>
-    </row>
-    <row r="13" spans="3:47">
-      <c r="C13" s="29">
+      <c r="AK12" s="60"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="48"/>
+      <c r="AP12" s="48"/>
+      <c r="AQ12" s="48"/>
+      <c r="AR12" s="48"/>
+      <c r="AS12" s="48"/>
+      <c r="AT12" s="48"/>
+      <c r="AU12" s="48"/>
+      <c r="AV12" s="48"/>
+      <c r="AW12" s="48"/>
+      <c r="AX12" s="48"/>
+      <c r="AY12" s="48"/>
+      <c r="AZ12" s="48"/>
+      <c r="BA12" s="48"/>
+      <c r="BB12" s="48"/>
+      <c r="BC12" s="48"/>
+      <c r="BD12" s="48"/>
+      <c r="BE12" s="48"/>
+      <c r="BF12" s="48"/>
+      <c r="BG12" s="48"/>
+      <c r="BH12" s="48"/>
+      <c r="BI12" s="48"/>
+    </row>
+    <row r="13" spans="3:65">
+      <c r="C13" s="13">
         <v>41</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="33" t="s">
+      <c r="G13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>42</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="AD13" s="20">
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="64">
         <v>42</v>
       </c>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="21" t="s">
+      <c r="AE13" s="64"/>
+      <c r="AF13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="22" t="s">
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AI13" s="22" t="s">
+      <c r="AI13" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="AJ13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK13" s="23"/>
-      <c r="AL13" s="24" t="s">
+      <c r="AJ13" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK13" s="43"/>
+      <c r="AL13" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="AM13" s="24"/>
-    </row>
-    <row r="14" spans="3:47">
-      <c r="C14" s="29">
+      <c r="AM13" s="60"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="59"/>
+      <c r="AP13" s="48"/>
+      <c r="AQ13" s="48"/>
+      <c r="AR13" s="48"/>
+      <c r="AS13" s="48"/>
+      <c r="AT13" s="48"/>
+      <c r="AU13" s="48"/>
+      <c r="AV13" s="48"/>
+      <c r="AW13" s="48"/>
+      <c r="AX13" s="48"/>
+      <c r="AY13" s="48"/>
+      <c r="AZ13" s="48"/>
+      <c r="BA13" s="48"/>
+      <c r="BB13" s="48"/>
+      <c r="BC13" s="48"/>
+      <c r="BD13" s="48"/>
+      <c r="BE13" s="48"/>
+      <c r="BF13" s="48"/>
+      <c r="BG13" s="48"/>
+      <c r="BH13" s="48"/>
+      <c r="BI13" s="48"/>
+    </row>
+    <row r="14" spans="3:65">
+      <c r="C14" s="13">
         <v>41</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="33" t="s">
+      <c r="G14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="AF14" s="20">
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="64">
         <v>42</v>
       </c>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="21" t="s">
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="22" t="s">
+      <c r="AI14" s="67"/>
+      <c r="AJ14" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AK14" s="22" t="s">
+      <c r="AK14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AL14" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM14" s="23"/>
-      <c r="AN14" s="24" t="s">
+      <c r="AL14" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM14" s="43"/>
+      <c r="AN14" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="AO14" s="24"/>
-    </row>
-    <row r="15" spans="3:47">
-      <c r="C15" s="29">
+      <c r="AO14" s="60"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="59"/>
+      <c r="AR14" s="59"/>
+      <c r="AS14" s="59"/>
+      <c r="AT14" s="48"/>
+      <c r="AU14" s="48"/>
+      <c r="AV14" s="48"/>
+      <c r="AW14" s="48"/>
+      <c r="AX14" s="48"/>
+      <c r="AY14" s="48"/>
+      <c r="AZ14" s="48"/>
+      <c r="BA14" s="48"/>
+      <c r="BB14" s="48"/>
+      <c r="BC14" s="48"/>
+      <c r="BD14" s="48"/>
+      <c r="BE14" s="48"/>
+      <c r="BF14" s="48"/>
+      <c r="BG14" s="48"/>
+      <c r="BH14" s="48"/>
+      <c r="BI14" s="48"/>
+    </row>
+    <row r="15" spans="3:65">
+      <c r="C15" s="13">
         <v>42</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="33" t="s">
+      <c r="G15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="17" t="s">
         <v>38</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="AJ15" s="20">
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="64">
         <v>41</v>
       </c>
-      <c r="AK15" s="20"/>
-      <c r="AL15" s="21" t="s">
+      <c r="AK15" s="64"/>
+      <c r="AL15" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="22" t="s">
+      <c r="AM15" s="41"/>
+      <c r="AN15" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="AO15" s="22" t="s">
+      <c r="AO15" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="AP15" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ15" s="23"/>
-      <c r="AR15" s="24" t="s">
+      <c r="AP15" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ15" s="57"/>
+      <c r="AR15" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="AS15" s="24"/>
-    </row>
-    <row r="16" spans="3:47">
-      <c r="C16" s="29">
+      <c r="AS15" s="60"/>
+      <c r="AT15" s="56"/>
+      <c r="AU15" s="59"/>
+      <c r="AV15" s="48"/>
+      <c r="AW15" s="48"/>
+      <c r="AX15" s="48"/>
+      <c r="AY15" s="48"/>
+      <c r="AZ15" s="48"/>
+      <c r="BA15" s="48"/>
+      <c r="BB15" s="48"/>
+      <c r="BC15" s="48"/>
+      <c r="BD15" s="48"/>
+      <c r="BE15" s="48"/>
+      <c r="BF15" s="48"/>
+      <c r="BG15" s="48"/>
+      <c r="BH15" s="48"/>
+      <c r="BI15" s="48"/>
+    </row>
+    <row r="16" spans="3:65">
+      <c r="C16" s="13">
         <v>43</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="33" t="s">
+      <c r="G16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>44</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="AL16" s="20">
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="64">
         <v>43</v>
       </c>
-      <c r="AM16" s="20"/>
-      <c r="AN16" s="21" t="s">
+      <c r="AM16" s="64"/>
+      <c r="AN16" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AO16" s="21"/>
-      <c r="AP16" s="22" t="s">
+      <c r="AO16" s="41"/>
+      <c r="AP16" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AQ16" s="22" t="s">
+      <c r="AQ16" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AR16" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="24" t="s">
+      <c r="AR16" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS16" s="43"/>
+      <c r="AT16" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AU16" s="24"/>
-    </row>
-    <row r="17" spans="3:61">
-      <c r="C17" s="29">
+      <c r="AU16" s="60"/>
+      <c r="AV16" s="56"/>
+      <c r="AW16" s="59"/>
+      <c r="AX16" s="48"/>
+      <c r="AY16" s="48"/>
+      <c r="AZ16" s="48"/>
+      <c r="BA16" s="48"/>
+      <c r="BB16" s="48"/>
+      <c r="BC16" s="48"/>
+      <c r="BD16" s="48"/>
+      <c r="BE16" s="48"/>
+      <c r="BF16" s="48"/>
+      <c r="BG16" s="48"/>
+      <c r="BH16" s="48"/>
+      <c r="BI16" s="48"/>
+    </row>
+    <row r="17" spans="3:62">
+      <c r="C17" s="13">
         <v>43</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="33" t="s">
+      <c r="G17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>37</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="AN17" s="20">
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="48"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="66"/>
+      <c r="AM17" s="66"/>
+      <c r="AN17" s="64">
         <v>44</v>
       </c>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="21" t="s">
+      <c r="AO17" s="64"/>
+      <c r="AP17" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="22" t="s">
+      <c r="AQ17" s="67"/>
+      <c r="AR17" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AS17" s="22" t="s">
+      <c r="AS17" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AT17" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU17" s="23"/>
-      <c r="AV17" s="24" t="s">
+      <c r="AT17" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU17" s="43"/>
+      <c r="AV17" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="AW17" s="24"/>
-    </row>
-    <row r="18" spans="3:61">
-      <c r="C18" s="29">
+      <c r="AW17" s="60"/>
+      <c r="AX17" s="56"/>
+      <c r="AY17" s="59"/>
+      <c r="AZ17" s="59"/>
+      <c r="BA17" s="59"/>
+      <c r="BB17" s="48"/>
+      <c r="BC17" s="48"/>
+      <c r="BD17" s="48"/>
+      <c r="BE17" s="48"/>
+      <c r="BF17" s="48"/>
+      <c r="BG17" s="48"/>
+      <c r="BH17" s="48"/>
+      <c r="BI17" s="48"/>
+    </row>
+    <row r="18" spans="3:62">
+      <c r="C18" s="13">
         <v>44</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="33" t="s">
+      <c r="G18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>38</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="AR18" s="20">
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="66"/>
+      <c r="AO18" s="66"/>
+      <c r="AP18" s="66"/>
+      <c r="AQ18" s="69"/>
+      <c r="AR18" s="70">
         <v>43</v>
       </c>
-      <c r="AS18" s="20"/>
-      <c r="AT18" s="21" t="s">
+      <c r="AS18" s="64"/>
+      <c r="AT18" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AU18" s="21"/>
-      <c r="AV18" s="22" t="s">
+      <c r="AU18" s="41"/>
+      <c r="AV18" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="AW18" s="22" t="s">
+      <c r="AW18" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AX18" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AY18" s="23"/>
-      <c r="AZ18" s="24" t="s">
+      <c r="AX18" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY18" s="57"/>
+      <c r="AZ18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="BA18" s="24"/>
-    </row>
-    <row r="19" spans="3:61">
-      <c r="C19" s="29">
+      <c r="BA18" s="60"/>
+      <c r="BB18" s="56"/>
+      <c r="BC18" s="59"/>
+      <c r="BD18" s="48"/>
+      <c r="BE18" s="48"/>
+      <c r="BF18" s="48"/>
+      <c r="BG18" s="48"/>
+      <c r="BH18" s="48"/>
+      <c r="BI18" s="48"/>
+    </row>
+    <row r="19" spans="3:62">
+      <c r="C19" s="13">
         <v>45</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="33" t="s">
+      <c r="G19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>46</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="AT19" s="20">
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="48"/>
+      <c r="AJ19" s="48"/>
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="48"/>
+      <c r="AO19" s="48"/>
+      <c r="AP19" s="48"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="69"/>
+      <c r="AT19" s="70">
         <v>45</v>
       </c>
-      <c r="AU19" s="20"/>
-      <c r="AV19" s="21" t="s">
+      <c r="AU19" s="64"/>
+      <c r="AV19" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="AW19" s="21"/>
-      <c r="AX19" s="22" t="s">
+      <c r="AW19" s="67"/>
+      <c r="AX19" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="AY19" s="22" t="s">
+      <c r="AY19" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="AZ19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="BA19" s="23"/>
-      <c r="BB19" s="24" t="s">
+      <c r="AZ19" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA19" s="43"/>
+      <c r="BB19" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="BC19" s="24"/>
-    </row>
-    <row r="20" spans="3:61">
-      <c r="C20" s="29">
+      <c r="BC19" s="47"/>
+      <c r="BD19" s="59"/>
+      <c r="BE19" s="59"/>
+      <c r="BF19" s="59"/>
+      <c r="BG19" s="59"/>
+      <c r="BH19" s="59"/>
+      <c r="BI19" s="59"/>
+    </row>
+    <row r="20" spans="3:62">
+      <c r="C20" s="13">
         <v>45</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="33" t="s">
+      <c r="G20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>37</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="AZ20" s="20">
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="59"/>
+      <c r="AK20" s="59"/>
+      <c r="AL20" s="59"/>
+      <c r="AM20" s="59"/>
+      <c r="AN20" s="59"/>
+      <c r="AO20" s="59"/>
+      <c r="AP20" s="59"/>
+      <c r="AQ20" s="59"/>
+      <c r="AR20" s="59"/>
+      <c r="AS20" s="59"/>
+      <c r="AT20" s="71"/>
+      <c r="AU20" s="71"/>
+      <c r="AV20" s="71"/>
+      <c r="AW20" s="71"/>
+      <c r="AX20" s="71"/>
+      <c r="AY20" s="63"/>
+      <c r="AZ20" s="62">
         <v>45</v>
       </c>
-      <c r="BA20" s="20"/>
-      <c r="BB20" s="21" t="s">
+      <c r="BA20" s="40"/>
+      <c r="BB20" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="BC20" s="21"/>
-      <c r="BD20" s="22" t="s">
+      <c r="BC20" s="41"/>
+      <c r="BD20" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="BE20" s="22" t="s">
+      <c r="BE20" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="BF20" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="BG20" s="23"/>
-      <c r="BH20" s="24" t="s">
+      <c r="BF20" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG20" s="57"/>
+      <c r="BH20" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="BI20" s="24"/>
-    </row>
-    <row r="21" spans="3:61">
+      <c r="BI20" s="47"/>
+    </row>
+    <row r="21" spans="3:62">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21">
+      <c r="J21" s="65">
         <v>1</v>
       </c>
-      <c r="L21">
+      <c r="K21" s="65"/>
+      <c r="L21" s="65">
         <v>2</v>
       </c>
-      <c r="N21">
+      <c r="M21" s="65"/>
+      <c r="N21" s="65">
         <v>3</v>
       </c>
-      <c r="P21">
+      <c r="O21" s="65"/>
+      <c r="P21" s="65">
         <v>4</v>
       </c>
-      <c r="R21">
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65">
         <v>5</v>
       </c>
-      <c r="T21">
+      <c r="S21" s="65"/>
+      <c r="T21" s="65">
         <v>6</v>
       </c>
-      <c r="V21">
+      <c r="U21" s="65"/>
+      <c r="V21" s="45">
         <v>7</v>
       </c>
-      <c r="X21">
+      <c r="W21" s="45"/>
+      <c r="X21" s="65">
         <v>8</v>
       </c>
-      <c r="Z21">
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65">
         <v>9</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65">
         <v>10</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65">
         <v>11</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="65"/>
+      <c r="AF21" s="65">
         <v>12</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="65">
         <v>13</v>
       </c>
-      <c r="AI21">
+      <c r="AI21" s="65"/>
+      <c r="AJ21" s="65">
         <v>14</v>
       </c>
-      <c r="AK21">
+      <c r="AK21" s="65"/>
+      <c r="AL21" s="65">
         <v>15</v>
       </c>
-      <c r="AM21">
+      <c r="AM21" s="65"/>
+      <c r="AN21" s="65">
         <v>16</v>
       </c>
-      <c r="AO21">
+      <c r="AO21" s="65"/>
+      <c r="AP21" s="65">
         <v>17</v>
       </c>
-      <c r="AQ21">
+      <c r="AQ21" s="65"/>
+      <c r="AR21" s="65">
         <v>18</v>
       </c>
-      <c r="AR21">
+      <c r="AS21" s="65"/>
+      <c r="AT21" s="65">
         <v>19</v>
       </c>
-      <c r="AT21">
+      <c r="AU21" s="65"/>
+      <c r="AV21" s="65">
         <v>20</v>
       </c>
-      <c r="AV21">
+      <c r="AW21" s="65"/>
+      <c r="AX21" s="65">
         <v>21</v>
       </c>
-      <c r="AX21">
+      <c r="AY21" s="65"/>
+      <c r="AZ21" s="45">
         <v>22</v>
       </c>
-      <c r="AZ21">
+      <c r="BA21" s="45"/>
+      <c r="BB21" s="45">
         <v>23</v>
       </c>
-      <c r="BB21">
+      <c r="BC21" s="45"/>
+      <c r="BD21" s="45">
         <v>24</v>
       </c>
-      <c r="BD21">
+      <c r="BE21" s="45"/>
+      <c r="BF21" s="45">
         <v>25</v>
       </c>
-      <c r="BF21">
+      <c r="BG21" s="45"/>
+      <c r="BH21" s="45">
         <v>26</v>
       </c>
-      <c r="BH21">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="3:61">
+      <c r="BI21" s="45"/>
+      <c r="BJ21" s="34"/>
+    </row>
+    <row r="22" spans="3:62">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="16" t="s">
+      <c r="K22" s="24"/>
+      <c r="L22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17" t="s">
+      <c r="M22" s="25"/>
+      <c r="N22" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="18" t="s">
+      <c r="O22" s="26"/>
+      <c r="P22" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="19" t="s">
+      <c r="Q22" s="27"/>
+      <c r="R22" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="S22" s="13"/>
-    </row>
-    <row r="23" spans="3:61">
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="3:62">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="14" t="s">
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="14" t="s">
+      <c r="O23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="13"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="6"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="3:61">
+    <row r="24" spans="3:62">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="25">
+      <c r="J24" s="21">
         <v>36</v>
       </c>
-      <c r="K24" s="25"/>
-      <c r="L24" s="26" t="s">
+      <c r="K24" s="21"/>
+      <c r="L24" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="26"/>
-      <c r="N24" s="22" t="s">
+      <c r="M24" s="22"/>
+      <c r="N24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O24" s="22" t="s">
+      <c r="O24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P24" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="28" t="s">
+      <c r="P24" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="S24" s="28"/>
+      <c r="S24" s="20"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="3:61">
+    <row r="25" spans="3:62">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="L25" s="25">
+      <c r="L25" s="21">
         <v>37</v>
       </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="21" t="s">
+      <c r="M25" s="21"/>
+      <c r="N25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="21"/>
-      <c r="P25" s="22" t="s">
+      <c r="O25" s="9"/>
+      <c r="P25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q25" s="22" t="s">
+      <c r="Q25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="S25" s="23"/>
-      <c r="T25" s="24" t="s">
+      <c r="R25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S25" s="11"/>
+      <c r="T25" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="U25" s="24"/>
-    </row>
-    <row r="26" spans="3:61">
+      <c r="U25" s="12"/>
+    </row>
+    <row r="26" spans="3:62">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="P26" s="25">
+      <c r="P26" s="21">
         <v>38</v>
       </c>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="21" t="s">
+      <c r="Q26" s="21"/>
+      <c r="R26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="S26" s="21"/>
-      <c r="T26" s="22" t="s">
+      <c r="S26" s="9"/>
+      <c r="T26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="U26" s="22" t="s">
+      <c r="U26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="V26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="W26" s="23"/>
-      <c r="X26" s="28" t="s">
+      <c r="V26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="W26" s="11"/>
+      <c r="X26" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="Y26" s="28"/>
-    </row>
-    <row r="27" spans="3:61">
+      <c r="Y26" s="20"/>
+    </row>
+    <row r="27" spans="3:62">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="V27" s="25">
+      <c r="V27" s="21">
         <v>39</v>
       </c>
-      <c r="W27" s="25"/>
-      <c r="X27" s="21" t="s">
+      <c r="W27" s="21"/>
+      <c r="X27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="22" t="s">
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AA27" s="22" t="s">
+      <c r="AA27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AB27" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="24" t="s">
+      <c r="AB27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AE27" s="24"/>
-    </row>
-    <row r="28" spans="3:61">
+      <c r="AE27" s="12"/>
+    </row>
+    <row r="28" spans="3:62">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="AB28" s="20">
+      <c r="AB28" s="8">
         <v>39</v>
       </c>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="21" t="s">
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AE28" s="21"/>
-      <c r="AF28" s="22" t="s">
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AG28" s="22" t="s">
+      <c r="AG28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AH28" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="24" t="s">
+      <c r="AH28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AK28" s="24"/>
-    </row>
-    <row r="29" spans="3:61">
+      <c r="AK28" s="12"/>
+    </row>
+    <row r="29" spans="3:62">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="AD29" s="20">
+      <c r="AD29" s="8">
         <v>40</v>
       </c>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="21" t="s">
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AG29" s="21"/>
-      <c r="AH29" s="22" t="s">
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AI29" s="22" t="s">
+      <c r="AI29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AJ29" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK29" s="23"/>
-      <c r="AL29" s="24" t="s">
+      <c r="AJ29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AM29" s="24"/>
-    </row>
-    <row r="30" spans="3:61">
+      <c r="AM29" s="12"/>
+    </row>
+    <row r="30" spans="3:62">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="AJ30" s="20">
+      <c r="AJ30" s="8">
         <v>41</v>
       </c>
-      <c r="AK30" s="20"/>
-      <c r="AL30" s="21" t="s">
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AM30" s="21"/>
-      <c r="AN30" s="22" t="s">
+      <c r="AM30" s="9"/>
+      <c r="AN30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AO30" s="22" t="s">
+      <c r="AO30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AP30" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ30" s="23"/>
-      <c r="AR30" s="24" t="s">
+      <c r="AP30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AS30" s="24"/>
-    </row>
-    <row r="31" spans="3:61">
+      <c r="AS30" s="12"/>
+    </row>
+    <row r="31" spans="3:62">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="AP31" s="20">
+      <c r="AP31" s="8">
         <v>41</v>
       </c>
-      <c r="AQ31" s="20"/>
-      <c r="AR31" s="21" t="s">
+      <c r="AQ31" s="8"/>
+      <c r="AR31" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AS31" s="21"/>
-      <c r="AT31" s="22" t="s">
+      <c r="AS31" s="9"/>
+      <c r="AT31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AU31" s="22" t="s">
+      <c r="AU31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AV31" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW31" s="23"/>
-      <c r="AX31" s="24" t="s">
+      <c r="AV31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW31" s="11"/>
+      <c r="AX31" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AY31" s="24"/>
-    </row>
-    <row r="32" spans="3:61">
+      <c r="AY31" s="12"/>
+    </row>
+    <row r="32" spans="3:62">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="AR32" s="20">
+      <c r="AR32" s="8">
         <v>42</v>
       </c>
-      <c r="AS32" s="20"/>
-      <c r="AT32" s="21" t="s">
+      <c r="AS32" s="8"/>
+      <c r="AT32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AU32" s="21"/>
-      <c r="AV32" s="22" t="s">
+      <c r="AU32" s="9"/>
+      <c r="AV32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AW32" s="22" t="s">
+      <c r="AW32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AX32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AY32" s="23"/>
-      <c r="AZ32" s="24" t="s">
+      <c r="AX32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY32" s="11"/>
+      <c r="AZ32" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="BA32" s="24"/>
+      <c r="BA32" s="12"/>
     </row>
     <row r="33" spans="3:79">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="AX33" s="20">
+      <c r="AX33" s="8">
         <v>43</v>
       </c>
-      <c r="AY33" s="20"/>
-      <c r="AZ33" s="21" t="s">
+      <c r="AY33" s="8"/>
+      <c r="AZ33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="BA33" s="21"/>
-      <c r="BB33" s="22" t="s">
+      <c r="BA33" s="9"/>
+      <c r="BB33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="BC33" s="22" t="s">
+      <c r="BC33" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="BD33" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="BE33" s="23"/>
-      <c r="BF33" s="24" t="s">
+      <c r="BD33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE33" s="11"/>
+      <c r="BF33" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="BG33" s="24"/>
+      <c r="BG33" s="12"/>
     </row>
     <row r="34" spans="3:79">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="BD34" s="20">
+      <c r="BD34" s="8">
         <v>43</v>
       </c>
-      <c r="BE34" s="20"/>
-      <c r="BF34" s="21" t="s">
+      <c r="BE34" s="8"/>
+      <c r="BF34" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BG34" s="21"/>
-      <c r="BH34" s="22" t="s">
+      <c r="BG34" s="9"/>
+      <c r="BH34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="BI34" s="22" t="s">
+      <c r="BI34" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="BJ34" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="BK34" s="23"/>
-      <c r="BL34" s="24" t="s">
+      <c r="BJ34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK34" s="11"/>
+      <c r="BL34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="BM34" s="24"/>
+      <c r="BM34" s="12"/>
     </row>
     <row r="35" spans="3:79">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="BF35" s="20">
+      <c r="BF35" s="8">
         <v>44</v>
       </c>
-      <c r="BG35" s="20"/>
-      <c r="BH35" s="21" t="s">
+      <c r="BG35" s="8"/>
+      <c r="BH35" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="BI35" s="21"/>
-      <c r="BJ35" s="22" t="s">
+      <c r="BI35" s="9"/>
+      <c r="BJ35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="BK35" s="22" t="s">
+      <c r="BK35" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="BL35" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="BM35" s="23"/>
-      <c r="BN35" s="24" t="s">
+      <c r="BL35" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM35" s="11"/>
+      <c r="BN35" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="BO35" s="24"/>
+      <c r="BO35" s="12"/>
     </row>
     <row r="36" spans="3:79">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="32" t="s">
+      <c r="G36" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="BL36" s="20">
+      <c r="BL36" s="8">
         <v>45</v>
       </c>
-      <c r="BM36" s="20"/>
-      <c r="BN36" s="21" t="s">
+      <c r="BM36" s="8"/>
+      <c r="BN36" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="BO36" s="21"/>
-      <c r="BP36" s="22" t="s">
+      <c r="BO36" s="9"/>
+      <c r="BP36" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="BQ36" s="22" t="s">
+      <c r="BQ36" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="BR36" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="BS36" s="23"/>
-      <c r="BT36" s="24" t="s">
+      <c r="BR36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS36" s="11"/>
+      <c r="BT36" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="BU36" s="24"/>
+      <c r="BU36" s="12"/>
     </row>
     <row r="37" spans="3:79">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="BR37" s="20">
+      <c r="BR37" s="8">
         <v>45</v>
       </c>
-      <c r="BS37" s="20"/>
-      <c r="BT37" s="21" t="s">
+      <c r="BS37" s="8"/>
+      <c r="BT37" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BU37" s="21"/>
-      <c r="BV37" s="22" t="s">
+      <c r="BU37" s="9"/>
+      <c r="BV37" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="BW37" s="22" t="s">
+      <c r="BW37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="BX37" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="BY37" s="23"/>
-      <c r="BZ37" s="24" t="s">
+      <c r="BX37" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY37" s="11"/>
+      <c r="BZ37" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="CA37" s="24"/>
+      <c r="CA37" s="12"/>
     </row>
     <row r="38" spans="3:79">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H38" s="2"/>
@@ -2443,7 +3430,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="32" t="s">
+      <c r="G39" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H39" s="2"/>
@@ -2466,7 +3453,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="32" t="s">
+      <c r="G40" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H40" s="2"/>
@@ -2506,7 +3493,104 @@
       <c r="U41" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="105">
+    <mergeCell ref="BB21:BC21"/>
+    <mergeCell ref="BD21:BE21"/>
+    <mergeCell ref="BF21:BG21"/>
+    <mergeCell ref="BH21:BI21"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL13:AM13"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AR15:AS15"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AZ18:BA18"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AP21:AQ21"/>
+    <mergeCell ref="AN21:AO21"/>
+    <mergeCell ref="AL21:AM21"/>
+    <mergeCell ref="AJ21:AK21"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="AZ21:BA21"/>
+    <mergeCell ref="AX21:AY21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AR21:AS21"/>
+    <mergeCell ref="BF20:BG20"/>
+    <mergeCell ref="BH20:BI20"/>
+    <mergeCell ref="BB19:BC19"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AZ20:BA20"/>
+    <mergeCell ref="AZ19:BA19"/>
+    <mergeCell ref="AX18:AY18"/>
+    <mergeCell ref="BB20:BC20"/>
+    <mergeCell ref="AP15:AQ15"/>
+    <mergeCell ref="AP17:AQ17"/>
+    <mergeCell ref="AR16:AS16"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="AN16:AO16"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P5:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="R5:S6"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="J22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q23"/>
+    <mergeCell ref="R22:R23"/>
     <mergeCell ref="X26:Y26"/>
     <mergeCell ref="V27:W27"/>
     <mergeCell ref="J24:K24"/>
@@ -2515,29 +3599,6 @@
     <mergeCell ref="R24:S24"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="J22:K23"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P5:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
